--- a/AppTimesheet/тест.xlsx
+++ b/AppTimesheet/тест.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2E077F-48B9-42EE-877C-080C4C037519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D0B308-752E-4832-B537-B4764DC108C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1140" windowWidth="16170" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17 департамент" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="589">
   <si>
     <t>Название ресурса</t>
   </si>
@@ -1786,6 +1786,9 @@
   </si>
   <si>
     <t>55ч</t>
+  </si>
+  <si>
+    <t>17Иванов Иван Иванович</t>
   </si>
 </sst>
 </file>
@@ -2240,8 +2243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:C200"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,8 +2555,12 @@
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
